--- a/data/trans_dic/P2A_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P2A_R-Habitat-trans_dic.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con personas con alguna limitación</t>
+          <t>Hogares con personas con alguna condición</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>24,9; 43,12</t>
+          <t>25,16; 42,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>32,35; 50,73</t>
+          <t>32,61; 50,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>33,67; 52,24</t>
+          <t>33,46; 52,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>60,48; 79,57</t>
+          <t>60,83; 79,64</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>27,25; 43,42</t>
+          <t>27,43; 44,05</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>40,06; 59,99</t>
+          <t>39,6; 60,05</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>47,0; 65,48</t>
+          <t>47,78; 66,03</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>55,47; 69,19</t>
+          <t>56,55; 69,82</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>28,21; 41,13</t>
+          <t>28,87; 40,92</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>38,99; 52,59</t>
+          <t>38,24; 51,85</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>43,29; 56,21</t>
+          <t>43,88; 56,96</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>59,81; 71,53</t>
+          <t>60,24; 71,61</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>32,34; 40,16</t>
+          <t>32,73; 40,84</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>39,17; 47,4</t>
+          <t>38,82; 46,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>36,94; 45,36</t>
+          <t>37,24; 46,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>68,16; 75,81</t>
+          <t>68,33; 76,02</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>40,84; 49,2</t>
+          <t>41,28; 49,53</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>44,88; 52,97</t>
+          <t>44,87; 53,13</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>46,09; 54,65</t>
+          <t>46,01; 54,5</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>67,41; 75,24</t>
+          <t>67,2; 74,97</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>37,73; 43,63</t>
+          <t>37,71; 43,64</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>43,32; 49,3</t>
+          <t>42,7; 48,75</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>42,85; 48,96</t>
+          <t>43,08; 48,86</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>68,66; 74,06</t>
+          <t>68,72; 74,2</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>33,43; 40,0</t>
+          <t>33,66; 40,02</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>35,9; 42,34</t>
+          <t>35,95; 42,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>37,96; 44,19</t>
+          <t>37,71; 44,21</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>72,57; 79,92</t>
+          <t>72,73; 80,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>46,04; 52,56</t>
+          <t>46,17; 52,68</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>48,29; 54,74</t>
+          <t>48,28; 54,78</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>47,14; 53,52</t>
+          <t>46,92; 53,43</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>66,58; 71,48</t>
+          <t>66,3; 71,43</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>40,79; 45,45</t>
+          <t>40,74; 45,39</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>43,09; 47,49</t>
+          <t>43,12; 47,45</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>43,56; 47,77</t>
+          <t>43,44; 48,0</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>70,2; 75,01</t>
+          <t>70,59; 75,29</t>
         </is>
       </c>
     </row>
@@ -1144,57 +1144,57 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>36,25; 44,23</t>
+          <t>36,09; 44,21</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>36,17; 43,54</t>
+          <t>35,47; 43,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>33,41; 41,07</t>
+          <t>33,58; 40,59</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>71,92; 79,21</t>
+          <t>72,43; 79,39</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>48,15; 55,33</t>
+          <t>48,02; 55,3</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>44,71; 52,21</t>
+          <t>44,57; 52,49</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>41,79; 48,94</t>
+          <t>41,49; 49,19</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>74,82; 86,15</t>
+          <t>74,58; 86,15</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>42,95; 48,75</t>
+          <t>43,31; 48,83</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>41,55; 46,73</t>
+          <t>41,53; 47,03</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>39,03; 43,86</t>
+          <t>39,06; 44,29</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>35,66; 41,74</t>
+          <t>35,69; 41,77</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>39,94; 46,5</t>
+          <t>39,97; 46,56</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>40,74; 47,18</t>
+          <t>40,36; 46,95</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>72,84; 79,04</t>
+          <t>73,17; 79,08</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>47,61; 53,94</t>
+          <t>47,5; 53,68</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>48,05; 54,15</t>
+          <t>47,91; 54,29</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>49,01; 55,72</t>
+          <t>49,16; 55,36</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>65,14; 71,29</t>
+          <t>64,77; 71,17</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>42,86; 47,24</t>
+          <t>42,56; 47,28</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>45,12; 49,82</t>
+          <t>45,22; 49,77</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>45,89; 50,46</t>
+          <t>45,89; 50,4</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>70,01; 74,19</t>
+          <t>69,83; 74,1</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>36,23; 39,6</t>
+          <t>36,04; 39,46</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>39,35; 42,88</t>
+          <t>39,45; 42,71</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>39,24; 42,71</t>
+          <t>39,38; 42,65</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>73,57; 77,2</t>
+          <t>73,71; 77,12</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>47,2; 50,67</t>
+          <t>47,38; 50,8</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>48,54; 52,13</t>
+          <t>48,49; 52,02</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>48,39; 51,71</t>
+          <t>48,08; 51,67</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>69,42; 73,96</t>
+          <t>69,5; 73,74</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>42,24; 44,68</t>
+          <t>42,26; 44,73</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>44,53; 47,02</t>
+          <t>44,46; 47,01</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>44,45; 46,9</t>
+          <t>44,4; 46,87</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>71,99; 74,82</t>
+          <t>71,95; 74,71</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P2A_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P2A_R-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>25,16; 42,36</t>
+          <t>24,71; 42,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>32,61; 50,25</t>
+          <t>33,43; 51,38</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>33,46; 52,0</t>
+          <t>33,66; 52,18</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>27,43; 44,05</t>
+          <t>26,99; 43,52</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>39,6; 60,05</t>
+          <t>39,44; 59,41</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>47,78; 66,03</t>
+          <t>48,24; 66,53</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>28,87; 40,92</t>
+          <t>28,55; 41,65</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>38,24; 51,85</t>
+          <t>38,29; 52,25</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>43,88; 56,96</t>
+          <t>43,63; 56,73</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>32,73; 40,84</t>
+          <t>32,6; 40,02</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>38,82; 46,88</t>
+          <t>39,18; 47,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>37,24; 46,11</t>
+          <t>37,43; 45,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>41,28; 49,53</t>
+          <t>41,31; 49,29</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>44,87; 53,13</t>
+          <t>44,92; 53,31</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>46,01; 54,5</t>
+          <t>45,98; 54,36</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>37,71; 43,64</t>
+          <t>38,07; 43,51</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>42,7; 48,75</t>
+          <t>43,09; 49,12</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>43,08; 48,86</t>
+          <t>42,74; 49,1</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>33,66; 40,02</t>
+          <t>33,51; 39,79</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>35,95; 42,37</t>
+          <t>35,72; 42,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>37,71; 44,21</t>
+          <t>37,85; 44,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>46,17; 52,68</t>
+          <t>46,25; 52,65</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>48,28; 54,78</t>
+          <t>48,19; 54,62</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>46,92; 53,43</t>
+          <t>47,28; 53,5</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>40,74; 45,39</t>
+          <t>40,51; 45,13</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>43,12; 47,45</t>
+          <t>42,94; 47,4</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>43,44; 48,0</t>
+          <t>43,45; 47,88</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>36,09; 44,21</t>
+          <t>36,06; 44,41</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>35,47; 43,07</t>
+          <t>35,96; 43,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>33,58; 40,59</t>
+          <t>33,69; 40,71</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>48,02; 55,3</t>
+          <t>48,3; 55,63</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>44,57; 52,49</t>
+          <t>44,91; 52,47</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>41,49; 49,19</t>
+          <t>41,63; 48,83</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>43,31; 48,83</t>
+          <t>43,35; 48,75</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>41,53; 47,03</t>
+          <t>41,57; 46,88</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>39,06; 44,29</t>
+          <t>38,69; 43,86</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>35,69; 41,77</t>
+          <t>35,75; 41,98</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>39,97; 46,56</t>
+          <t>40,34; 46,71</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>40,36; 46,95</t>
+          <t>40,56; 47,32</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>47,5; 53,68</t>
+          <t>47,65; 54,02</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>47,91; 54,29</t>
+          <t>48,02; 54,31</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>49,16; 55,36</t>
+          <t>48,92; 55,56</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>42,56; 47,28</t>
+          <t>43,04; 47,11</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>45,22; 49,77</t>
+          <t>44,95; 49,61</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>45,89; 50,4</t>
+          <t>45,91; 50,61</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>36,04; 39,46</t>
+          <t>36,28; 39,59</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>39,45; 42,71</t>
+          <t>39,48; 42,87</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>39,38; 42,65</t>
+          <t>39,15; 42,67</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>47,38; 50,8</t>
+          <t>47,28; 50,71</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>48,49; 52,02</t>
+          <t>48,61; 52,09</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>48,08; 51,67</t>
+          <t>48,1; 51,59</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>42,26; 44,73</t>
+          <t>42,34; 44,87</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>44,46; 47,01</t>
+          <t>44,44; 46,93</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>44,4; 46,87</t>
+          <t>44,34; 46,73</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">

--- a/data/trans_dic/P2A_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P2A_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>24,71; 42,71</t>
+          <t>24,9; 43,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>33,43; 51,38</t>
+          <t>32,35; 50,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>33,66; 52,18</t>
+          <t>33,67; 52,24</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>60,83; 79,64</t>
+          <t>60,48; 79,57</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>26,99; 43,52</t>
+          <t>27,25; 43,42</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>39,44; 59,41</t>
+          <t>40,06; 59,99</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>48,24; 66,53</t>
+          <t>47,0; 65,48</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>56,55; 69,82</t>
+          <t>55,47; 69,19</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>28,55; 41,65</t>
+          <t>28,21; 41,13</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>38,29; 52,25</t>
+          <t>38,99; 52,59</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>43,63; 56,73</t>
+          <t>43,29; 56,21</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>60,24; 71,61</t>
+          <t>59,81; 71,53</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>32,6; 40,02</t>
+          <t>32,34; 40,16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>39,18; 47,45</t>
+          <t>39,17; 47,4</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>37,43; 45,73</t>
+          <t>36,94; 45,36</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>68,33; 76,02</t>
+          <t>68,16; 75,81</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>41,31; 49,29</t>
+          <t>40,84; 49,2</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>44,92; 53,31</t>
+          <t>44,88; 52,97</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>45,98; 54,36</t>
+          <t>46,09; 54,65</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>67,2; 74,97</t>
+          <t>67,41; 75,24</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>38,07; 43,51</t>
+          <t>37,73; 43,63</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>43,09; 49,12</t>
+          <t>43,32; 49,3</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>42,74; 49,1</t>
+          <t>42,85; 48,96</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>68,72; 74,2</t>
+          <t>68,66; 74,06</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>33,51; 39,79</t>
+          <t>33,43; 40,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>35,72; 42,34</t>
+          <t>35,9; 42,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>37,85; 44,04</t>
+          <t>37,96; 44,19</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>72,73; 80,38</t>
+          <t>72,57; 79,92</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>46,25; 52,65</t>
+          <t>46,04; 52,56</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>48,19; 54,62</t>
+          <t>48,29; 54,74</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>47,28; 53,5</t>
+          <t>47,14; 53,52</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>66,3; 71,43</t>
+          <t>66,58; 71,48</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>40,51; 45,13</t>
+          <t>40,79; 45,45</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>42,94; 47,4</t>
+          <t>43,09; 47,49</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>43,45; 47,88</t>
+          <t>43,56; 47,77</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>70,59; 75,29</t>
+          <t>70,2; 75,01</t>
         </is>
       </c>
     </row>
@@ -1144,57 +1144,57 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>36,06; 44,41</t>
+          <t>36,25; 44,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>35,96; 43,21</t>
+          <t>36,17; 43,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>33,69; 40,71</t>
+          <t>33,41; 41,07</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>72,43; 79,39</t>
+          <t>71,92; 79,21</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>48,3; 55,63</t>
+          <t>48,15; 55,33</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>44,91; 52,47</t>
+          <t>44,71; 52,21</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>41,63; 48,83</t>
+          <t>41,79; 48,94</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>74,58; 86,15</t>
+          <t>74,82; 86,15</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>43,35; 48,75</t>
+          <t>42,95; 48,75</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>41,57; 46,88</t>
+          <t>41,55; 46,73</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>38,69; 43,86</t>
+          <t>39,03; 43,86</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>35,75; 41,98</t>
+          <t>35,66; 41,74</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>40,34; 46,71</t>
+          <t>39,94; 46,5</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>40,56; 47,32</t>
+          <t>40,74; 47,18</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>73,17; 79,08</t>
+          <t>72,84; 79,04</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>47,65; 54,02</t>
+          <t>47,61; 53,94</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>48,02; 54,31</t>
+          <t>48,05; 54,15</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>48,92; 55,56</t>
+          <t>49,01; 55,72</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>64,77; 71,17</t>
+          <t>65,14; 71,29</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>43,04; 47,11</t>
+          <t>42,86; 47,24</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>44,95; 49,61</t>
+          <t>45,12; 49,82</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>45,91; 50,61</t>
+          <t>45,89; 50,46</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>69,83; 74,1</t>
+          <t>70,01; 74,19</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>36,28; 39,59</t>
+          <t>36,23; 39,6</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>39,48; 42,87</t>
+          <t>39,35; 42,88</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>39,15; 42,67</t>
+          <t>39,24; 42,71</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>73,71; 77,12</t>
+          <t>73,57; 77,2</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>47,28; 50,71</t>
+          <t>47,2; 50,67</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>48,61; 52,09</t>
+          <t>48,54; 52,13</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>48,1; 51,59</t>
+          <t>48,39; 51,71</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>69,5; 73,74</t>
+          <t>69,42; 73,96</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>42,34; 44,87</t>
+          <t>42,24; 44,68</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>44,44; 46,93</t>
+          <t>44,53; 47,02</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>44,34; 46,73</t>
+          <t>44,45; 46,9</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>71,95; 74,71</t>
+          <t>71,99; 74,82</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P2A_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P2A_R-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>33,08%</t>
+          <t>48,57%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>41,56%</t>
+          <t>60,48%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>42,81%</t>
+          <t>52,84%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>70,58%</t>
+          <t>44,7%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>35,44%</t>
+          <t>62,91%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>49,51%</t>
+          <t>69,05%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>56,99%</t>
+          <t>65,59%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>63,01%</t>
+          <t>45,61%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>34,25%</t>
+          <t>55,71%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>45,47%</t>
+          <t>64,75%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>49,8%</t>
+          <t>59,21%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>66,33%</t>
+          <t>45,19%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>24,9; 43,12</t>
+          <t>44,88; 52,37</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>32,35; 50,73</t>
+          <t>56,44; 64,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>33,67; 52,24</t>
+          <t>48,88; 56,84</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>60,48; 79,57</t>
+          <t>40,59; 49,27</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>27,25; 43,42</t>
+          <t>59,35; 66,38</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>40,06; 59,99</t>
+          <t>65,42; 72,65</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>47,0; 65,48</t>
+          <t>61,98; 69,35</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>55,47; 69,19</t>
+          <t>36,97; 49,92</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>28,21; 41,13</t>
+          <t>52,87; 58,22</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>38,99; 52,59</t>
+          <t>62,28; 67,59</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>43,29; 56,21</t>
+          <t>56,53; 61,74</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>59,81; 71,53</t>
+          <t>40,06; 48,01</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>36,48%</t>
+          <t>48,69%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>43,14%</t>
+          <t>54,3%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>41,47%</t>
+          <t>51,68%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>72,35%</t>
+          <t>32,78%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>45,11%</t>
+          <t>65,23%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>48,92%</t>
+          <t>71,19%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>50,23%</t>
+          <t>65,62%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>70,65%</t>
+          <t>49,4%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>40,78%</t>
+          <t>56,98%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>46,02%</t>
+          <t>62,8%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>45,85%</t>
+          <t>58,72%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>71,45%</t>
+          <t>40,19%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>32,34; 40,16</t>
+          <t>45,25; 52,2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>39,17; 47,4</t>
+          <t>51,01; 57,74</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>36,94; 45,36</t>
+          <t>48,64; 54,93</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>68,16; 75,81</t>
+          <t>17,91; 42,13</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>40,84; 49,2</t>
+          <t>62,01; 68,34</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>44,88; 52,97</t>
+          <t>68,2; 74,07</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>46,09; 54,65</t>
+          <t>62,42; 68,39</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>67,41; 75,24</t>
+          <t>46,63; 52,18</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>37,73; 43,63</t>
+          <t>54,84; 59,34</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>43,32; 49,3</t>
+          <t>60,56; 64,89</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>42,85; 48,96</t>
+          <t>56,39; 60,61</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>68,66; 74,06</t>
+          <t>27,2; 46,03</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>36,66%</t>
+          <t>49,32%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>38,96%</t>
+          <t>50,22%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>40,99%</t>
+          <t>48,58%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>75,92%</t>
+          <t>41,04%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>49,36%</t>
+          <t>63,68%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>51,51%</t>
+          <t>67,62%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>50,36%</t>
+          <t>60,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>69,01%</t>
+          <t>54,55%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>43,03%</t>
+          <t>56,53%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>45,28%</t>
+          <t>59,03%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>45,72%</t>
+          <t>54,39%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>72,43%</t>
+          <t>48,74%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>33,43; 40,0</t>
+          <t>45,23; 53,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>35,9; 42,34</t>
+          <t>46,41; 53,94</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>37,96; 44,19</t>
+          <t>44,33; 52,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>72,57; 79,92</t>
+          <t>37,03; 45,69</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>46,04; 52,56</t>
+          <t>59,93; 67,12</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>48,29; 54,74</t>
+          <t>64,07; 70,85</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>47,14; 53,52</t>
+          <t>56,24; 63,55</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>66,58; 71,48</t>
+          <t>40,53; 76,8</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>40,79; 45,45</t>
+          <t>53,67; 59,27</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>43,09; 47,49</t>
+          <t>56,32; 61,72</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>43,56; 47,77</t>
+          <t>51,75; 56,9</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>70,2; 75,01</t>
+          <t>40,27; 65,57</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>40,16%</t>
+          <t>46,45%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>39,63%</t>
+          <t>57,85%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>37,15%</t>
+          <t>55,32%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>76,15%</t>
+          <t>38,25%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>51,69%</t>
+          <t>63,25%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>48,55%</t>
+          <t>68,47%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>45,43%</t>
+          <t>63,48%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>78,86%</t>
+          <t>42,5%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>45,95%</t>
+          <t>55,26%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>44,15%</t>
+          <t>63,43%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>41,36%</t>
+          <t>59,62%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>77,63%</t>
+          <t>40,55%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>36,25; 44,23</t>
+          <t>43,24; 49,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>36,17; 43,54</t>
+          <t>54,52; 61,08</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>33,41; 41,07</t>
+          <t>52,36; 58,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>71,92; 79,21</t>
+          <t>35,04; 41,93</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>48,15; 55,33</t>
+          <t>60,06; 66,17</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>44,71; 52,21</t>
+          <t>65,63; 71,3</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>41,79; 48,94</t>
+          <t>60,61; 66,76</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>74,82; 86,15</t>
+          <t>33,98; 46,4</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>42,95; 48,75</t>
+          <t>53,11; 57,4</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>41,55; 46,73</t>
+          <t>61,43; 65,63</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>39,03; 43,86</t>
+          <t>57,08; 61,79</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>74,98; 82,51</t>
+          <t>35,84; 43,04</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>38,74%</t>
+          <t>48,15%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>43,26%</t>
+          <t>55,65%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>43,68%</t>
+          <t>52,22%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>76,36%</t>
+          <t>38,12%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>50,65%</t>
+          <t>63,83%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>51,1%</t>
+          <t>69,19%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>52,26%</t>
+          <t>63,74%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>68,58%</t>
+          <t>47,92%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>44,99%</t>
+          <t>56,11%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>47,38%</t>
+          <t>62,54%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>48,2%</t>
+          <t>58,11%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>72,13%</t>
+          <t>43,19%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>35,66; 41,74</t>
+          <t>46,5; 50,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>39,94; 46,5</t>
+          <t>53,81; 57,5</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>40,74; 47,18</t>
+          <t>50,34; 53,93</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>72,84; 79,04</t>
+          <t>29,17; 41,77</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>47,61; 53,94</t>
+          <t>62,11; 65,44</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>48,05; 54,15</t>
+          <t>67,48; 70,74</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>49,01; 55,72</t>
+          <t>62,08; 65,28</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>65,14; 71,29</t>
+          <t>43,9; 56,44</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>42,86; 47,24</t>
+          <t>54,84; 57,32</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>45,12; 49,82</t>
+          <t>61,34; 63,73</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>45,89; 50,46</t>
+          <t>56,89; 59,25</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>70,01; 74,19</t>
+          <t>39,11; 47,77</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>37,83%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>41,1%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>41,02%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>75,35%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>49,04%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>50,26%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>50,02%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>71,19%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>43,52%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>45,76%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>45,61%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>73,14%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>36,23; 39,6</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>39,35; 42,88</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>39,24; 42,71</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>73,57; 77,2</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>47,2; 50,67</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>48,54; 52,13</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>48,39; 51,71</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>69,42; 73,96</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>42,24; 44,68</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>44,53; 47,02</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>44,45; 46,9</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>71,99; 74,82</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P2A_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P2A_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -534,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con personas con alguna condición</t>
+          <t>Hogares que tienen personas con alguna condición, enfermedad crónica o limitación</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>44,88; 52,37</t>
+          <t>44,77; 52,3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>56,44; 64,02</t>
+          <t>56,92; 64,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>48,88; 56,84</t>
+          <t>48,84; 56,86</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>40,59; 49,27</t>
+          <t>40,27; 49,04</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>59,35; 66,38</t>
+          <t>59,33; 66,22</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>65,42; 72,65</t>
+          <t>65,14; 72,57</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>61,98; 69,35</t>
+          <t>61,41; 68,77</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>36,97; 49,92</t>
+          <t>34,46; 49,94</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>52,87; 58,22</t>
+          <t>53,12; 58,38</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>62,28; 67,59</t>
+          <t>62,08; 67,17</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>56,53; 61,74</t>
+          <t>56,59; 61,97</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>40,06; 48,01</t>
+          <t>39,56; 48,24</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>45,25; 52,2</t>
+          <t>45,54; 51,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>51,01; 57,74</t>
+          <t>51,27; 57,43</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>48,64; 54,93</t>
+          <t>48,37; 54,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>17,91; 42,13</t>
+          <t>17,89; 42,35</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>62,01; 68,34</t>
+          <t>62,05; 68,11</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>68,2; 74,07</t>
+          <t>68,42; 74,23</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>62,42; 68,39</t>
+          <t>62,65; 68,38</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>46,63; 52,18</t>
+          <t>46,6; 52,2</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>54,84; 59,34</t>
+          <t>54,78; 59,32</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>60,56; 64,89</t>
+          <t>60,49; 65,06</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>56,39; 60,61</t>
+          <t>56,5; 61,02</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>27,2; 46,03</t>
+          <t>26,64; 46,05</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>45,23; 53,35</t>
+          <t>45,15; 53,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>46,41; 53,94</t>
+          <t>46,37; 53,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>44,33; 52,31</t>
+          <t>44,94; 52,75</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>37,03; 45,69</t>
+          <t>36,22; 45,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>59,93; 67,12</t>
+          <t>60,2; 67,5</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>64,07; 70,85</t>
+          <t>64,04; 70,86</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>56,24; 63,55</t>
+          <t>56,45; 63,79</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>40,53; 76,8</t>
+          <t>40,48; 75,47</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>53,67; 59,27</t>
+          <t>53,79; 59,25</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>56,32; 61,72</t>
+          <t>56,3; 61,54</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>51,75; 56,9</t>
+          <t>52,04; 57,27</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>40,27; 65,57</t>
+          <t>40,65; 65,97</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>43,24; 49,53</t>
+          <t>43,3; 49,7</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>54,52; 61,08</t>
+          <t>54,62; 61,16</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>52,36; 58,55</t>
+          <t>52,12; 58,46</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>35,04; 41,93</t>
+          <t>34,57; 41,68</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>60,06; 66,17</t>
+          <t>60,35; 66,44</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>65,63; 71,3</t>
+          <t>65,57; 71,43</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>60,61; 66,76</t>
+          <t>60,3; 66,34</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>33,98; 46,4</t>
+          <t>34,04; 46,21</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>53,11; 57,4</t>
+          <t>53,2; 57,57</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>61,43; 65,63</t>
+          <t>61,27; 65,58</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>57,08; 61,79</t>
+          <t>57,37; 61,83</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>35,84; 43,04</t>
+          <t>35,57; 43,12</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>46,5; 50,03</t>
+          <t>46,39; 50,01</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>53,81; 57,5</t>
+          <t>53,97; 57,43</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>50,34; 53,93</t>
+          <t>50,46; 54,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>29,17; 41,77</t>
+          <t>30,22; 41,85</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>62,11; 65,44</t>
+          <t>62,17; 65,77</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>67,48; 70,74</t>
+          <t>67,55; 70,8</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>62,08; 65,28</t>
+          <t>62,12; 65,31</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>43,9; 56,44</t>
+          <t>44,17; 58,07</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>54,84; 57,32</t>
+          <t>54,87; 57,41</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>61,34; 63,73</t>
+          <t>61,35; 63,74</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>56,89; 59,25</t>
+          <t>56,91; 59,33</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>39,11; 47,77</t>
+          <t>39,27; 48,31</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares que tienen personas con alguna condición, enfermedad crónica o limitación</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>336</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>405</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>347</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>357</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>438</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>423</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>665</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>856</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>770</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1022</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>337075</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>425474</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>356577</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>284071</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>433047</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>481347</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>441324</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>330829</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>770122</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>906821</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>797901</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>614901</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>310728; 362990</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>400406; 450557</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>329589; 383674</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>255916; 311618</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>408377; 455841</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>454092; 505842</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>413204; 462719</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>249924; 362229</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>734314; 807038</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>869384; 940697</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>762655; 835174</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>538317; 656469</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>446</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>508</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>499</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>592</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>668</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>625</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>1038</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>1176</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>1124</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>1234</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>468276</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>552726</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>528413</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>391011</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>631638</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>734789</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>684411</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>473577</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1099915</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1287515</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1212824</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>864588</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>437976; 499956</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>521916; 584594</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>494580; 559590</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>213344; 505142</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>600914; 659614</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>706176; 766154</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>653415; 713192</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>446744; 500387</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1057414; 1145059</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1240068; 1333911</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1166831; 1260274</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>573066; 990756</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>341</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>341</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>295</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>447</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>472</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>430</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>486</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>813</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>781</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>334649</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>380492</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>369005</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>289201</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>435463</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>525491</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>471041</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>509113</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>770112</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>905983</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>840045</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>798314</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>306371; 360027</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>351302; 407897</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>341370; 400636</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>255219; 320441</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>411672; 461619</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>497673; 550667</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>443159; 500724</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>377836; 704418</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>732848; 807226</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>864048; 944540</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>803803; 884577</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>665910; 1080693</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>468</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>520</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>519</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>408</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>631</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>682</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>590</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>749</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1099</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1202</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1109</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1157</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>437663</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>548259</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>518639</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>354490</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>656897</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>720196</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>662561</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>465298</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1094560</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1268455</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1181200</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>819789</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>407957; 468301</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>517682; 579616</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>488628; 548105</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>320382; 386343</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>626819; 690102</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>689746; 751355</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>629423; 692434</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>372735; 506020</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1053860; 1140327</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1225261; 1311379</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1136745; 1225110</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>719221; 871687</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>1574</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>1774</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1706</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>1494</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>2108</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>2273</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>2068</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>2700</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>3682</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>4047</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>3774</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>4194</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>1577663</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1906951</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1772634</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>1318774</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>2157045</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>2461823</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>2259337</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>1778817</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>3734709</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>4368774</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>4031970</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>3097592</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1519872; 1638673</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1849476; 1968067</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1712701; 1832928</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>1045718; 1448031</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>2100896; 2222608</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>2403543; 2519341</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>2202021; 2314803</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1639887; 2155738</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>3652324; 3821214</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>4285196; 4452118</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>3949120; 4116959</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>2816485; 3464703</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>